--- a/editTablaDecisión/Tabla decisión Egreso.xlsx
+++ b/editTablaDecisión/Tabla decisión Egreso.xlsx
@@ -479,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,12 +488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,15 +514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,17 +521,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,25 +857,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="2.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="12" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" customWidth="1"/>
+    <col min="19" max="20" width="2.28515625" customWidth="1"/>
     <col min="21" max="22" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="2.5703125" customWidth="1"/>
     <col min="25" max="25" width="61" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -858,868 +890,868 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="5"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
+      <c r="W4" s="31"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="15" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
+      <c r="C8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="12"/>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="10"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12"/>
+      <c r="C12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
+      <c r="C13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="12"/>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="12" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13"/>
+    </row>
+    <row r="18" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1737,15 +1769,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B19:W19"/>
+    <mergeCell ref="C2:W2"/>
+    <mergeCell ref="C6:W6"/>
+    <mergeCell ref="B18:W18"/>
     <mergeCell ref="B20:W20"/>
     <mergeCell ref="B21:W21"/>
     <mergeCell ref="B22:W22"/>
     <mergeCell ref="B23:W23"/>
     <mergeCell ref="B24:W24"/>
-    <mergeCell ref="B19:W19"/>
-    <mergeCell ref="C2:W2"/>
-    <mergeCell ref="C6:W6"/>
-    <mergeCell ref="B18:W18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
